--- a/docs/Presupuesto&Cronograma.xlsx
+++ b/docs/Presupuesto&Cronograma.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -902,7 +902,7 @@
       </c>
       <c r="B4" s="6">
         <f ca="1">TODAY()</f>
-        <v>45740</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="5" spans="1:5">
